--- a/biology/Zoologie/Chrysanthia/Chrysanthia.xlsx
+++ b/biology/Zoologie/Chrysanthia/Chrysanthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthia est un genre d'insectes de l'ordre des coléoptères, de la famille des Oedemeridae, de la sous-famille des Oedemerinae, et de la tribu des Ditylini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des insectes plutôt allongés au corps mou et souvent à éclat métallique. 
 </t>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes se nourrissent généralement de fleurs mais les larves sont xylophages[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent généralement de fleurs mais les larves sont xylophages.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 Le genre est largement répandu dans la zone paléarctique.
@@ -606,11 +624,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chrysanthia a été décrit par le naturaliste allemand Wilhelm Ludwig Ewald Schmidt en 1844. 
-Taxinomie
-Liste des espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysanthia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysanthia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Chrysanthia bhutanica
 Chrysanthia canaliculata 
 Chrysanthia chalcochroa
